--- a/backend/tests/Fixtures/Import/File/xtb_export.xlsx
+++ b/backend/tests/Fixtures/Import/File/xtb_export.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="CLOSED POSITION HISTORY" sheetId="1" r:id="rId6"/>
-    <sheet name="OPEN POSITION 12012026" sheetId="2" r:id="rId11"/>
+    <sheet name="OPEN POSITION 14012026" sheetId="2" r:id="rId11"/>
     <sheet name="PENDING ORDERS HISTORY " sheetId="3" r:id="rId16"/>
     <sheet name="CASH OPERATION HISTORY" sheetId="4" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'CLOSED POSITION HISTORY'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'OPEN POSITION 12012026'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'OPEN POSITION 14012026'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'PENDING ORDERS HISTORY '!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'CASH OPERATION HISTORY'!$1:$4</definedName>
   </definedNames>
@@ -139,15 +139,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -179,18 +170,27 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <sz val="8"/>
+      <color rgb="FFFF3B2E"/>
+      <name val="Tahoma"/>
     </font>
     <font>
       <b/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FFFF3B2E"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="4">
@@ -236,7 +236,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -295,70 +295,91 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="10" fillId="2" borderId="0">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="13" fillId="3" borderId="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="14" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="13" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="13" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="13" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="84" fontId="13" fillId="3" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="13" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="15" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="14" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="84" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="13" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="16" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="14" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="15" fillId="2" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="15" fillId="3" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="14" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="14" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="14" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="84" fontId="14" fillId="3" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="14" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="14" fillId="2" borderId="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="16" fillId="3" borderId="1">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="13" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="15" fillId="3" borderId="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="14" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="14" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="14" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="15" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="18" fillId="2" borderId="1">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="13" fillId="2" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="17" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -952,7 +973,7 @@
         </is>
       </c>
       <c s="5" r="U6">
-        <v>46034.414316331</v>
+        <v>46036.8306216551</v>
       </c>
     </row>
     <row r="7" ht="25.2" customHeight="0">
@@ -1101,16 +1122,16 @@
         </is>
       </c>
       <c s="10" r="F9">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="11" r="I9">
-        <v>2372.23</v>
+        <v>3351.27</v>
       </c>
       <c s="11" r="L9">
         <v>0.00</v>
       </c>
       <c s="11" r="O9">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="12" r="R9">
         <v>0.00</v>
@@ -1219,7 +1240,7 @@
     <row r="11" ht="23.75" customHeight="0">
       <c s="16" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">01/01/2025 - 12/01/2026</t>
+          <t xml:space="preserve">01/01/2006 - 14/01/2026</t>
         </is>
       </c>
       <c s="15" t="inlineStr" r="F11">
@@ -1306,7 +1327,7 @@
     <row r="12" ht="17" customHeight="0">
       <c s="17" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Balance :2.85 - 3.22</t>
+          <t xml:space="preserve">Balance :3.22 - 0.00</t>
         </is>
       </c>
       <c s="15" t="inlineStr" r="H12">
@@ -1482,93 +1503,233 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="0">
-      <c s="20" t="inlineStr" r="B14">
+    <row r="14" ht="15.75" customHeight="0">
+      <c s="20" r="B14">
+        <v>1231773164</v>
+      </c>
+      <c s="21" t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="22" t="inlineStr" r="D14">
+        <is>
+          <t xml:space="preserve">BUY</t>
+        </is>
+      </c>
+      <c s="23" r="E14">
+        <v>0.0617</v>
+      </c>
+      <c s="24" r="F14">
+        <v>45343.6522149884</v>
+      </c>
+      <c s="23" r="G14">
+        <v>686.13000</v>
+      </c>
+      <c s="24" r="H14">
+        <v>45452.4925850347</v>
+      </c>
+      <c s="23" r="I14">
+        <v>686.13000</v>
+      </c>
+      <c s="22" t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve">xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c s="22" t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve">correction</t>
+        </is>
+      </c>
+      <c s="25" r="L14">
+        <v>997.520000</v>
+      </c>
+      <c s="25" r="M14">
+        <v>960.220000</v>
+      </c>
+      <c s="22" t="str" r="N14"/>
+      <c s="22" t="str" r="O14"/>
+      <c s="22" t="str" r="P14"/>
+      <c s="26" r="Q14">
+        <v>0.00</v>
+      </c>
+      <c s="26" r="R14">
+        <v>0.00</v>
+      </c>
+      <c s="26" r="S14">
+        <v>0.00</v>
+      </c>
+      <c s="27" r="T14">
+        <v>0.00</v>
+      </c>
+      <c s="22" t="inlineStr" r="U14">
+        <is>
+          <t xml:space="preserve">STC Transfer Out</t>
+        </is>
+      </c>
+      <c s="28" t="str" r="V14"/>
+      <c s="28" t="str" r="W14"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="0">
+      <c s="29" r="B15">
+        <v>2292474088</v>
+      </c>
+      <c s="30" t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">AAPL.US</t>
+        </is>
+      </c>
+      <c s="31" t="inlineStr" r="D15">
+        <is>
+          <t xml:space="preserve">BUY</t>
+        </is>
+      </c>
+      <c s="32" r="E15">
+        <v>0.1823</v>
+      </c>
+      <c s="33" r="F15">
+        <v>46036.7516684143</v>
+      </c>
+      <c s="32" r="G15">
+        <v>257.80000</v>
+      </c>
+      <c s="33" r="H15">
+        <v>46036.7529809144</v>
+      </c>
+      <c s="32" r="I15">
+        <v>257.89000</v>
+      </c>
+      <c s="31" t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c s="31" t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c s="34" r="L15">
+        <v>982.940000</v>
+      </c>
+      <c s="34" r="M15">
+        <v>972.800000</v>
+      </c>
+      <c s="31" t="str" r="N15"/>
+      <c s="31" t="str" r="O15"/>
+      <c s="31" t="str" r="P15"/>
+      <c s="35" r="Q15">
+        <v>0.00</v>
+      </c>
+      <c s="35" r="R15">
+        <v>0.00</v>
+      </c>
+      <c s="35" r="S15">
+        <v>0.00</v>
+      </c>
+      <c s="36" r="T15">
+        <v>-10.14</v>
+      </c>
+      <c s="31" t="str" r="U15"/>
+      <c s="28" t="str" r="V15"/>
+      <c s="28" t="str" r="W15"/>
+    </row>
+    <row r="16" ht="17" customHeight="0">
+      <c s="37" t="inlineStr" r="B16">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
       </c>
-      <c s="20" t="inlineStr" r="C14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="D14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="E14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="F14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="G14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="H14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="I14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="J14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="K14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="L14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="M14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="N14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="O14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="P14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="str" r="Q14"/>
-      <c s="21" t="str" r="R14"/>
-      <c s="21" t="str" r="S14"/>
-      <c s="21" t="str" r="T14"/>
-      <c s="20" t="inlineStr" r="U14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="0.05" customHeight="1"/>
+      <c s="37" t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="D16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="L16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="M16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="N16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="O16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="P16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="38" r="Q16">
+        <v>0.00</v>
+      </c>
+      <c s="38" r="R16">
+        <v>0.00</v>
+      </c>
+      <c s="38" r="S16">
+        <v>0.00</v>
+      </c>
+      <c s="38" r="T16">
+        <v>-10.14</v>
+      </c>
+      <c s="37" t="inlineStr" r="U16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="0.05" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="V1:V2"/>
@@ -1601,6 +1762,8 @@
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.393700787401575" bottom="1.36888188976378" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1672,7 +1835,7 @@
         </is>
       </c>
       <c s="5" r="H5">
-        <v>46034.4143197685</v>
+        <v>46036.830623287</v>
       </c>
     </row>
     <row r="6" ht="25.2" customHeight="0">
@@ -1761,16 +1924,16 @@
         </is>
       </c>
       <c s="10" r="D8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="11" r="E8">
-        <v>2372.23</v>
+        <v>3351.27</v>
       </c>
       <c s="11" r="F8">
         <v>0.00</v>
       </c>
       <c s="11" r="G8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="12" r="H8">
         <v>0.00</v>
@@ -1819,7 +1982,7 @@
     <row r="10" ht="23.75" customHeight="0">
       <c s="16" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">01/01/2025 - 12/01/2026</t>
+          <t xml:space="preserve">01/01/2006 - 14/01/2026</t>
         </is>
       </c>
       <c s="15" t="inlineStr" r="E10">
@@ -1881,28 +2044,28 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="0">
-      <c s="23" r="B12">
+      <c s="20" r="B12">
         <v>764987766</v>
       </c>
-      <c s="25" t="inlineStr" r="C12">
+      <c s="22" t="inlineStr" r="C12">
         <is>
           <t xml:space="preserve">DIVIDENT</t>
         </is>
       </c>
-      <c s="27" r="D12">
+      <c s="24" r="D12">
         <v>45749.487230787</v>
       </c>
-      <c s="25" t="inlineStr" r="E12">
+      <c s="22" t="inlineStr" r="E12">
         <is>
           <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
         </is>
       </c>
-      <c s="35" t="inlineStr" r="F12">
+      <c s="45" t="inlineStr" r="F12">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="30" r="G12">
+      <c s="27" r="G12">
         <v>0.14</v>
       </c>
       <c s="6" t="inlineStr" r="H12">
@@ -1912,28 +2075,28 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="0">
-      <c s="36" r="B13">
+      <c s="29" r="B13">
         <v>764987767</v>
       </c>
-      <c s="37" t="inlineStr" r="C13">
+      <c s="31" t="inlineStr" r="C13">
         <is>
           <t xml:space="preserve">Withholding Tax</t>
         </is>
       </c>
-      <c s="38" r="D13">
+      <c s="33" r="D13">
         <v>45749.487230787</v>
       </c>
-      <c s="37" t="inlineStr" r="E13">
+      <c s="31" t="inlineStr" r="E13">
         <is>
           <t xml:space="preserve">NVDA.US USD WHT 30%</t>
         </is>
       </c>
-      <c s="39" t="inlineStr" r="F13">
+      <c s="46" t="inlineStr" r="F13">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="40" r="G13">
+      <c s="36" r="G13">
         <v>-0.04</v>
       </c>
       <c s="6" t="inlineStr" r="H13">
@@ -1943,227 +2106,827 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="0">
-      <c s="23" r="B14">
+      <c s="20" r="B14">
+        <v>504388240</v>
+      </c>
+      <c s="22" t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve">deposit</t>
+        </is>
+      </c>
+      <c s="24" r="D14">
+        <v>45343.3880934838</v>
+      </c>
+      <c s="22" t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve">Deposit</t>
+        </is>
+      </c>
+      <c s="45" t="str" r="F14"/>
+      <c s="27" r="G14">
+        <v>1000.00</v>
+      </c>
+      <c s="6" t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="0">
+      <c s="29" r="B15">
+        <v>504599167</v>
+      </c>
+      <c s="31" t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">Stock purchase</t>
+        </is>
+      </c>
+      <c s="33" r="D15">
+        <v>45343.6522150579</v>
+      </c>
+      <c s="31" t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">OPEN BUY 0.0617 @ 686.13</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F15">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="36" r="G15">
+        <v>-997.52</v>
+      </c>
+      <c s="6" t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="0">
+      <c s="20" r="B16">
+        <v>521868165</v>
+      </c>
+      <c s="22" t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="24" r="D16">
+        <v>45378.5001642477</v>
+      </c>
+      <c s="22" t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">NVDA.US USD 0.0400/ SHR</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F16">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="27" r="G16">
+        <v>0.06</v>
+      </c>
+      <c s="6" t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="0">
+      <c s="29" r="B17">
+        <v>521868166</v>
+      </c>
+      <c s="31" t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">Withholding Tax</t>
+        </is>
+      </c>
+      <c s="33" r="D17">
+        <v>45378.5001642477</v>
+      </c>
+      <c s="31" t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">NVDA.US USD WHT 30%</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F17">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="36" r="G17">
+        <v>-0.02</v>
+      </c>
+      <c s="6" t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="0">
+      <c s="20" r="B18">
+        <v>527154754</v>
+      </c>
+      <c s="22" t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">Free-funds Interest</t>
+        </is>
+      </c>
+      <c s="24" r="D18">
+        <v>45387.4596566319</v>
+      </c>
+      <c s="22" t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">Free-funds Interest 2024-03</t>
+        </is>
+      </c>
+      <c s="45" t="str" r="F18"/>
+      <c s="27" r="G18">
+        <v>0.01</v>
+      </c>
+      <c s="6" t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="0">
+      <c s="29" r="B19">
+        <v>543753276</v>
+      </c>
+      <c s="31" t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">Free-funds Interest</t>
+        </is>
+      </c>
+      <c s="33" r="D19">
+        <v>45419.2513253241</v>
+      </c>
+      <c s="31" t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">Free-funds Interest 2024-04</t>
+        </is>
+      </c>
+      <c s="46" t="str" r="F19"/>
+      <c s="40" r="G19">
+        <v>0.01</v>
+      </c>
+      <c s="6" t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="0">
+      <c s="20" r="B20">
+        <v>559040651</v>
+      </c>
+      <c s="22" t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">Free-funds Interest</t>
+        </is>
+      </c>
+      <c s="24" r="D20">
+        <v>45448.0746559954</v>
+      </c>
+      <c s="22" t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">Free-funds Interest 2024-05</t>
+        </is>
+      </c>
+      <c s="45" t="str" r="F20"/>
+      <c s="27" r="G20">
+        <v>0.01</v>
+      </c>
+      <c s="6" t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="0">
+      <c s="29" r="B21">
+        <v>571590480</v>
+      </c>
+      <c s="31" t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="33" r="D21">
+        <v>45471.5015815509</v>
+      </c>
+      <c s="31" t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F21">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="40" r="G21">
+        <v>0.14</v>
+      </c>
+      <c s="6" t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="0">
+      <c s="20" r="B22">
+        <v>571590481</v>
+      </c>
+      <c s="22" t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">Withholding Tax</t>
+        </is>
+      </c>
+      <c s="24" r="D22">
+        <v>45471.5015815509</v>
+      </c>
+      <c s="22" t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">NVDA.US USD WHT 30%</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F22">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="47" r="G22">
+        <v>-0.04</v>
+      </c>
+      <c s="6" t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="0">
+      <c s="29" r="B23">
+        <v>630162121</v>
+      </c>
+      <c s="31" t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="33" r="D23">
+        <v>45569.6413445602</v>
+      </c>
+      <c s="31" t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F23">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="40" r="G23">
+        <v>0.01</v>
+      </c>
+      <c s="6" t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="0">
+      <c s="20" r="B24">
+        <v>630536584</v>
+      </c>
+      <c s="22" t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="24" r="D24">
+        <v>45569.777293588</v>
+      </c>
+      <c s="22" t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">corr NVDA.US USD 0.0100/ SHR</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F24">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="47" r="G24">
+        <v>-0.01</v>
+      </c>
+      <c s="6" t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="0">
+      <c s="29" r="B25">
+        <v>631501309</v>
+      </c>
+      <c s="31" t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="33" r="D25">
+        <v>45572.4305590278</v>
+      </c>
+      <c s="31" t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F25">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="40" r="G25">
+        <v>0.14</v>
+      </c>
+      <c s="6" t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="0">
+      <c s="20" r="B26">
+        <v>632363815</v>
+      </c>
+      <c s="22" t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">Withholding Tax</t>
+        </is>
+      </c>
+      <c s="24" r="D26">
+        <v>45573.4517725</v>
+      </c>
+      <c s="22" t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">NVDA.US USD WHT 30%</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F26">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="47" r="G26">
+        <v>-0.04</v>
+      </c>
+      <c s="6" t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="0">
+      <c s="29" r="B27">
+        <v>686043413</v>
+      </c>
+      <c s="31" t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">DIVIDENT</t>
+        </is>
+      </c>
+      <c s="33" r="D27">
+        <v>45653.5108081134</v>
+      </c>
+      <c s="31" t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F27">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="40" r="G27">
+        <v>0.15</v>
+      </c>
+      <c s="6" t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="0">
+      <c s="20" r="B28">
+        <v>686043414</v>
+      </c>
+      <c s="22" t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">Withholding Tax</t>
+        </is>
+      </c>
+      <c s="24" r="D28">
+        <v>45653.5108081134</v>
+      </c>
+      <c s="22" t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">NVDA.US USD WHT 30%</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F28">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="47" r="G28">
+        <v>-0.05</v>
+      </c>
+      <c s="6" t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="0">
+      <c s="29" r="B29">
         <v>860853604</v>
       </c>
-      <c s="25" t="inlineStr" r="C14">
+      <c s="31" t="inlineStr" r="C29">
         <is>
           <t xml:space="preserve">DIVIDENT</t>
         </is>
       </c>
-      <c s="27" r="D14">
+      <c s="33" r="D29">
         <v>45841.4808146875</v>
       </c>
-      <c s="25" t="inlineStr" r="E14">
+      <c s="31" t="inlineStr" r="E29">
         <is>
           <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
         </is>
       </c>
-      <c s="35" t="inlineStr" r="F14">
+      <c s="46" t="inlineStr" r="F29">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="30" r="G14">
+      <c s="40" r="G29">
         <v>0.13</v>
       </c>
-      <c s="6" t="inlineStr" r="H14">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="0">
-      <c s="36" r="B15">
+      <c s="6" t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="0">
+      <c s="20" r="B30">
         <v>860853605</v>
       </c>
-      <c s="37" t="inlineStr" r="C15">
+      <c s="22" t="inlineStr" r="C30">
         <is>
           <t xml:space="preserve">Withholding Tax</t>
         </is>
       </c>
-      <c s="38" r="D15">
+      <c s="24" r="D30">
         <v>45841.4808146875</v>
       </c>
-      <c s="37" t="inlineStr" r="E15">
+      <c s="22" t="inlineStr" r="E30">
         <is>
           <t xml:space="preserve">NVDA.US USD WHT 30%</t>
         </is>
       </c>
-      <c s="39" t="inlineStr" r="F15">
+      <c s="45" t="inlineStr" r="F30">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="40" r="G15">
+      <c s="47" r="G30">
         <v>-0.04</v>
       </c>
-      <c s="6" t="inlineStr" r="H15">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="0">
-      <c s="23" r="B16">
+      <c s="6" t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="0">
+      <c s="29" r="B31">
         <v>955817006</v>
       </c>
-      <c s="25" t="inlineStr" r="C16">
+      <c s="31" t="inlineStr" r="C31">
         <is>
           <t xml:space="preserve">DIVIDENT</t>
         </is>
       </c>
-      <c s="27" r="D16">
+      <c s="33" r="D31">
         <v>45932.3266513657</v>
       </c>
-      <c s="25" t="inlineStr" r="E16">
+      <c s="31" t="inlineStr" r="E31">
         <is>
           <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
         </is>
       </c>
-      <c s="35" t="inlineStr" r="F16">
+      <c s="46" t="inlineStr" r="F31">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="30" r="G16">
+      <c s="40" r="G31">
         <v>0.13</v>
       </c>
-      <c s="6" t="inlineStr" r="H16">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="0">
-      <c s="36" r="B17">
+      <c s="6" t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="0">
+      <c s="20" r="B32">
         <v>955817007</v>
       </c>
-      <c s="37" t="inlineStr" r="C17">
+      <c s="22" t="inlineStr" r="C32">
         <is>
           <t xml:space="preserve">Withholding Tax</t>
         </is>
       </c>
-      <c s="38" r="D17">
+      <c s="24" r="D32">
         <v>45932.3266513657</v>
       </c>
-      <c s="37" t="inlineStr" r="E17">
+      <c s="22" t="inlineStr" r="E32">
         <is>
           <t xml:space="preserve">NVDA.US USD WHT 30%</t>
         </is>
       </c>
-      <c s="39" t="inlineStr" r="F17">
+      <c s="45" t="inlineStr" r="F32">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="40" r="G17">
+      <c s="47" r="G32">
         <v>-0.04</v>
       </c>
-      <c s="6" t="inlineStr" r="H17">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="0">
-      <c s="23" r="B18">
+      <c s="6" t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="0">
+      <c s="29" r="B33">
         <v>1064198116</v>
       </c>
-      <c s="25" t="inlineStr" r="C18">
+      <c s="31" t="inlineStr" r="C33">
         <is>
           <t xml:space="preserve">DIVIDENT</t>
         </is>
       </c>
-      <c s="27" r="D18">
+      <c s="33" r="D33">
         <v>46017.3265354167</v>
       </c>
-      <c s="25" t="inlineStr" r="E18">
+      <c s="31" t="inlineStr" r="E33">
         <is>
           <t xml:space="preserve">NVDA.US USD 0.0100/ SHR</t>
         </is>
       </c>
-      <c s="35" t="inlineStr" r="F18">
+      <c s="46" t="inlineStr" r="F33">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="30" r="G18">
+      <c s="40" r="G33">
         <v>0.13</v>
       </c>
-      <c s="6" t="inlineStr" r="H18">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="0">
-      <c s="36" r="B19">
+      <c s="6" t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="0">
+      <c s="20" r="B34">
         <v>1064198117</v>
       </c>
-      <c s="37" t="inlineStr" r="C19">
+      <c s="22" t="inlineStr" r="C34">
         <is>
           <t xml:space="preserve">Withholding Tax</t>
         </is>
       </c>
-      <c s="38" r="D19">
+      <c s="24" r="D34">
         <v>46017.3265354167</v>
       </c>
-      <c s="37" t="inlineStr" r="E19">
+      <c s="22" t="inlineStr" r="E34">
         <is>
           <t xml:space="preserve">NVDA.US USD WHT 30%</t>
         </is>
       </c>
-      <c s="39" t="inlineStr" r="F19">
+      <c s="45" t="inlineStr" r="F34">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="40" r="G19">
+      <c s="47" r="G34">
         <v>-0.04</v>
       </c>
-      <c s="6" t="inlineStr" r="H19">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="0">
-      <c s="20" t="inlineStr" r="B20">
+      <c s="6" t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="0">
+      <c s="29" r="B35">
+        <v>1088286759</v>
+      </c>
+      <c s="31" t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">deposit</t>
+        </is>
+      </c>
+      <c s="33" r="D35">
+        <v>46036.4156654051</v>
+      </c>
+      <c s="31" t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">Deposit</t>
+        </is>
+      </c>
+      <c s="46" t="str" r="F35"/>
+      <c s="40" r="G35">
+        <v>1000.00</v>
+      </c>
+      <c s="6" t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="0">
+      <c s="20" r="B36">
+        <v>1089479372</v>
+      </c>
+      <c s="22" t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">Stock purchase</t>
+        </is>
+      </c>
+      <c s="24" r="D36">
+        <v>46036.7516685995</v>
+      </c>
+      <c s="22" t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">OPEN BUY 0.1823 @ 257.80</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F36">
+        <is>
+          <t xml:space="preserve">AAPL.US</t>
+        </is>
+      </c>
+      <c s="47" r="G36">
+        <v>-982.94</v>
+      </c>
+      <c s="6" t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="0">
+      <c s="29" r="B37">
+        <v>1089481785</v>
+      </c>
+      <c s="31" t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">Stock purchase</t>
+        </is>
+      </c>
+      <c s="33" r="D37">
+        <v>46036.7564231481</v>
+      </c>
+      <c s="31" t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">OPEN BUY 0.2556 @ 182.03</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F37">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="36" r="G37">
+        <v>-973.30</v>
+      </c>
+      <c s="6" t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="0">
+      <c s="20" r="B38">
+        <v>1089480049</v>
+      </c>
+      <c s="22" t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">close trade</t>
+        </is>
+      </c>
+      <c s="24" r="D38">
+        <v>46036.7529811227</v>
+      </c>
+      <c s="22" t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">Profit of position #2292474088</t>
+        </is>
+      </c>
+      <c s="45" t="inlineStr" r="F38">
+        <is>
+          <t xml:space="preserve">AAPL.US</t>
+        </is>
+      </c>
+      <c s="47" r="G38">
+        <v>-10.14</v>
+      </c>
+      <c s="6" t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="0">
+      <c s="29" r="B39">
+        <v>1089480050</v>
+      </c>
+      <c s="31" t="inlineStr" r="C39">
+        <is>
+          <t xml:space="preserve">Stock sale</t>
+        </is>
+      </c>
+      <c s="33" r="D39">
+        <v>46036.7529811227</v>
+      </c>
+      <c s="31" t="inlineStr" r="E39">
+        <is>
+          <t xml:space="preserve">CLOSE BUY 0.1823 @ 257.89</t>
+        </is>
+      </c>
+      <c s="46" t="inlineStr" r="F39">
+        <is>
+          <t xml:space="preserve">AAPL.US</t>
+        </is>
+      </c>
+      <c s="40" r="G39">
+        <v>982.94</v>
+      </c>
+      <c s="6" t="inlineStr" r="H39">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="17" customHeight="0">
+      <c s="37" t="inlineStr" r="B40">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
       </c>
-      <c s="20" t="inlineStr" r="C20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="D20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="E20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="F20">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="31" r="G20">
-        <v>0.37</v>
-      </c>
-      <c s="41" t="inlineStr" r="H20">
+      <c s="37" t="inlineStr" r="C40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="D40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="E40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="F40">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="38" r="G40">
+        <v>19.78</v>
+      </c>
+      <c s="48" t="inlineStr" r="H40">
         <is>
           <t xml:space="preserve">CZK</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="36.7" customHeight="1"/>
+    <row r="41" ht="36.7" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="K1:K2"/>
@@ -2271,7 +3034,7 @@
         </is>
       </c>
       <c s="5" r="Q5">
-        <v>46034.4143195833</v>
+        <v>46036.8306225579</v>
       </c>
     </row>
     <row r="6" ht="25.2" customHeight="0">
@@ -2400,16 +3163,16 @@
         </is>
       </c>
       <c s="10" r="F8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="11" r="I8">
-        <v>2372.23</v>
+        <v>3351.27</v>
       </c>
       <c s="11" r="L8">
         <v>0.00</v>
       </c>
       <c s="11" r="N8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="12" r="Q8">
         <v>0.00</v>
@@ -2491,8 +3254,8 @@
       </c>
     </row>
     <row r="10" ht="23.75" customHeight="0">
-      <c s="22" r="B10">
-        <v>46034</v>
+      <c s="39" r="B10">
+        <v>46036</v>
       </c>
       <c s="15" t="inlineStr" r="F10">
         <is>
@@ -2638,126 +3401,176 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="0">
-      <c s="23" r="B12">
+      <c s="20" r="B12">
         <v>1349504156</v>
       </c>
-      <c s="24" t="inlineStr" r="C12">
+      <c s="21" t="inlineStr" r="C12">
         <is>
           <t xml:space="preserve">NVDA.US</t>
         </is>
       </c>
-      <c s="25" t="inlineStr" r="D12">
+      <c s="22" t="inlineStr" r="D12">
         <is>
           <t xml:space="preserve">BUY</t>
         </is>
       </c>
-      <c s="26" r="E12">
+      <c s="23" r="E12">
         <v>0.6170</v>
       </c>
-      <c s="27" r="F12">
+      <c s="24" r="F12">
         <v>45452.6341463542</v>
       </c>
-      <c s="26" r="G12">
+      <c s="23" r="G12">
         <v>68.61000</v>
       </c>
-      <c s="26" r="H12">
-        <v>184.95000</v>
-      </c>
-      <c s="28" r="I12">
+      <c s="23" r="H12">
+        <v>185.78000</v>
+      </c>
+      <c s="25" r="I12">
         <v>960.180000</v>
       </c>
-      <c s="25" t="str" r="J12"/>
-      <c s="25" t="str" r="K12"/>
-      <c s="23" r="L12">
+      <c s="22" t="str" r="J12"/>
+      <c s="22" t="str" r="K12"/>
+      <c s="20" r="L12">
         <v>0.00</v>
       </c>
-      <c s="29" r="M12">
+      <c s="26" r="M12">
         <v>0.00</v>
       </c>
-      <c s="29" r="N12">
+      <c s="26" r="N12">
         <v>0.00</v>
       </c>
-      <c s="29" r="O12">
+      <c s="26" r="O12">
         <v>0.00</v>
       </c>
-      <c s="30" r="P12">
-        <v>1408.83</v>
-      </c>
-      <c s="25" t="inlineStr" r="Q12">
+      <c s="27" r="P12">
+        <v>1410.75</v>
+      </c>
+      <c s="22" t="inlineStr" r="Q12">
         <is>
           <t xml:space="preserve">NVDA.US split 10 for 1</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="0">
-      <c s="20" t="inlineStr" r="B13">
+    <row r="13" ht="15.75" customHeight="0">
+      <c s="29" r="B13">
+        <v>2292479721</v>
+      </c>
+      <c s="30" t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve">NVDA.US</t>
+        </is>
+      </c>
+      <c s="31" t="inlineStr" r="D13">
+        <is>
+          <t xml:space="preserve">BUY</t>
+        </is>
+      </c>
+      <c s="32" r="E13">
+        <v>0.2556</v>
+      </c>
+      <c s="33" r="F13">
+        <v>46036.7564231366</v>
+      </c>
+      <c s="32" r="G13">
+        <v>182.03000</v>
+      </c>
+      <c s="31" t="str" r="H13"/>
+      <c s="34" r="I13">
+        <v>973.300000</v>
+      </c>
+      <c s="31" t="str" r="J13"/>
+      <c s="31" t="str" r="K13"/>
+      <c s="29" r="L13">
+        <v>0.00</v>
+      </c>
+      <c s="35" r="M13">
+        <v>0.00</v>
+      </c>
+      <c s="35" r="N13">
+        <v>0.00</v>
+      </c>
+      <c s="35" r="O13">
+        <v>0.00</v>
+      </c>
+      <c s="40" r="P13">
+        <v>0.00</v>
+      </c>
+      <c s="31" t="inlineStr" r="Q13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="0">
+      <c s="37" t="inlineStr" r="B14">
         <is>
           <t xml:space="preserve">Total</t>
         </is>
       </c>
-      <c s="20" t="inlineStr" r="C13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="D13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="E13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="F13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="G13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="H13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="I13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="J13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="K13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="20" t="inlineStr" r="L13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="31" r="M13">
+      <c s="37" t="inlineStr" r="C14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="D14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="E14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="F14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="G14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="H14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="I14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="J14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="K14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="37" t="inlineStr" r="L14">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="38" r="M14">
         <v>0.00</v>
       </c>
-      <c s="31" r="N13">
+      <c s="38" r="N14">
         <v>0.00</v>
       </c>
-      <c s="31" r="O13">
+      <c s="38" r="O14">
         <v>0.00</v>
       </c>
-      <c s="31" r="P13">
-        <v>1408.83</v>
-      </c>
-      <c s="20" t="inlineStr" r="Q13">
+      <c s="38" r="P14">
+        <v>1410.75</v>
+      </c>
+      <c s="37" t="inlineStr" r="Q14">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -2854,13 +3667,13 @@
           <t xml:space="preserve">Currency</t>
         </is>
       </c>
-      <c s="32" t="inlineStr" r="L5">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="33" r="M5">
-        <v>46034.4143195833</v>
+      <c s="41" t="inlineStr" r="L5">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="42" r="M5">
+        <v>46036.8306229282</v>
       </c>
     </row>
     <row r="6" ht="25.2" customHeight="0">
@@ -2889,12 +3702,12 @@
           <t xml:space="preserve">CZK</t>
         </is>
       </c>
-      <c s="32" t="inlineStr" r="L6">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="M6">
+      <c s="41" t="inlineStr" r="L6">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="M6">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -2949,16 +3762,16 @@
         </is>
       </c>
       <c s="10" r="D8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="11" r="G8">
-        <v>2372.23</v>
+        <v>3351.27</v>
       </c>
       <c s="11" r="J8">
         <v>0.00</v>
       </c>
       <c s="11" r="L8">
-        <v>3.22</v>
+        <v>19.78</v>
       </c>
       <c s="12" r="M8">
         <v>0.00</v>
@@ -2998,87 +3811,87 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="32" t="inlineStr" r="G9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="H9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="I9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="J9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="K9">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="32" t="inlineStr" r="L9">
+      <c s="41" t="inlineStr" r="G9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="H9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="I9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="J9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="K9">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" t="inlineStr" r="L9">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
     </row>
     <row r="10" ht="23.75" customHeight="0">
-      <c s="22" r="B10">
-        <v>46034</v>
-      </c>
-      <c s="34" t="inlineStr" r="D10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="E10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="F10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="G10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="H10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="I10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="J10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="K10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="L10">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" t="inlineStr" r="M10">
+      <c s="39" r="B10">
+        <v>46036</v>
+      </c>
+      <c s="43" t="inlineStr" r="D10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="E10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="F10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="G10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="H10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="I10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="J10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="K10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="L10">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="43" t="inlineStr" r="M10">
         <is>
           <t xml:space="preserve"/>
         </is>
@@ -3147,76 +3960,76 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="0">
-      <c s="25" t="str" r="B12"/>
-      <c s="24" t="str" r="C12"/>
-      <c s="25" t="str" r="D12"/>
-      <c s="25" t="str" r="E12"/>
-      <c s="25" t="str" r="F12"/>
-      <c s="25" t="str" r="G12"/>
-      <c s="25" t="str" r="H12"/>
-      <c s="25" t="str" r="I12"/>
-      <c s="25" t="str" r="J12"/>
-      <c s="25" t="str" r="K12"/>
-      <c s="25" t="str" r="L12"/>
-      <c s="25" t="str" r="M12"/>
+      <c s="22" t="str" r="B12"/>
+      <c s="21" t="str" r="C12"/>
+      <c s="22" t="str" r="D12"/>
+      <c s="22" t="str" r="E12"/>
+      <c s="22" t="str" r="F12"/>
+      <c s="22" t="str" r="G12"/>
+      <c s="22" t="str" r="H12"/>
+      <c s="22" t="str" r="I12"/>
+      <c s="22" t="str" r="J12"/>
+      <c s="22" t="str" r="K12"/>
+      <c s="22" t="str" r="L12"/>
+      <c s="22" t="str" r="M12"/>
     </row>
     <row r="13" ht="17" customHeight="0">
-      <c s="20" t="inlineStr" r="B13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="C13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="D13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="E13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="F13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="G13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="H13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="I13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="J13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="K13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="L13">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="21" t="inlineStr" r="M13">
+      <c s="37" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="C13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="D13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="E13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="F13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="G13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="H13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="I13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="J13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="K13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="L13">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="44" t="inlineStr" r="M13">
         <is>
           <t xml:space="preserve"/>
         </is>
